--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="116">
   <si>
     <t>anchor score</t>
   </si>
@@ -64,139 +64,139 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>security</t>
   </si>
   <si>
     <t>hand</t>
@@ -727,10 +727,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -859,7 +859,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>87</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
         <v>0.9777777777777777</v>
@@ -1109,7 +1109,7 @@
         <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9">
         <v>0.9655172413793104</v>
@@ -1159,7 +1159,7 @@
         <v>463</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10">
         <v>0.9444444444444444</v>
@@ -1184,32 +1184,8 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.09701492537313433</v>
-      </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>219</v>
-      </c>
-      <c r="E11">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>121</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11">
         <v>0.9444444444444444</v>
@@ -1235,7 +1211,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12">
         <v>0.9361702127659575</v>
@@ -1261,7 +1237,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13">
         <v>0.9333333333333333</v>
@@ -1287,7 +1263,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14">
         <v>0.9333333333333333</v>
@@ -1313,7 +1289,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15">
         <v>0.9230769230769231</v>
@@ -1339,7 +1315,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16">
         <v>0.8899082568807339</v>
@@ -1365,7 +1341,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17">
         <v>0.889763779527559</v>
@@ -1391,7 +1367,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18">
         <v>0.8846153846153846</v>
@@ -1417,7 +1393,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19">
         <v>0.8823529411764706</v>
@@ -1443,7 +1419,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20">
         <v>0.8518518518518519</v>
@@ -1469,7 +1445,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21">
         <v>0.85</v>
@@ -1495,7 +1471,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22">
         <v>0.8421052631578947</v>
@@ -1521,7 +1497,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23">
         <v>0.84</v>
@@ -1547,7 +1523,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24">
         <v>0.8214285714285714</v>
@@ -1573,7 +1549,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
         <v>0.8181818181818182</v>
@@ -1599,7 +1575,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
         <v>0.8181818181818182</v>
@@ -1625,7 +1601,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>0.8141025641025641</v>
@@ -1651,7 +1627,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
         <v>0.8095238095238095</v>
@@ -1677,7 +1653,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>0.8085106382978723</v>
@@ -1703,7 +1679,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
         <v>0.797979797979798</v>
@@ -1729,59 +1705,59 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.7665198237885462</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L31">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.7333333333333333</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="N32">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>0.7222222222222222</v>
@@ -1807,7 +1783,7 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
         <v>0.7083333333333334</v>
@@ -1833,7 +1809,7 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35">
         <v>0.7073170731707317</v>
@@ -1859,7 +1835,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
         <v>0.7058823529411765</v>
@@ -1885,7 +1861,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K37">
         <v>0.6956521739130435</v>
@@ -1911,7 +1887,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K38">
         <v>0.6818181818181818</v>
@@ -1937,7 +1913,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K39">
         <v>0.6468531468531469</v>
@@ -1963,7 +1939,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K40">
         <v>0.6410256410256411</v>
@@ -1989,7 +1965,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K41">
         <v>0.640625</v>
@@ -2015,7 +1991,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K42">
         <v>0.6363636363636364</v>
@@ -2041,7 +2017,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K43">
         <v>0.6363636363636364</v>
@@ -2067,16 +2043,16 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="K44">
-        <v>0.6299694189602446</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L44">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>0.9399999999999999</v>
@@ -2088,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2096,25 +2072,25 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.6296296296296297</v>
+        <v>0.625</v>
       </c>
       <c r="L45">
+        <v>15</v>
+      </c>
+      <c r="M45">
         <v>17</v>
       </c>
-      <c r="M45">
-        <v>18</v>
-      </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2122,25 +2098,25 @@
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.625</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="N46">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>9</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="10:17">
